--- a/subacute_data.xlsx
+++ b/subacute_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brain_Science\Documents\GitHub\Mg_infusion_coma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2471935A-ECF7-48D2-AC4E-F905D52BCB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32FCBB3-0F42-481A-97AF-8039221E8982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6DFBA39-B4D2-422A-BFA2-9F24C3BE26D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
   <si>
     <t>day1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t>김영현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4, T6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +614,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -775,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -923,7 +927,7 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
